--- a/Crossdocking/ExcelTemplate/Template.xlsx
+++ b/Crossdocking/ExcelTemplate/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AnyCode\RomaDeep\Crossdocking\Crossdocking\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B81CCB-2DD4-4156-AB2F-9DDA1B420D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96CB41F-0DEA-4584-A720-7CC030AF9B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{D03ACF5C-9933-4BCC-8427-2782BF8FB291}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -43,6 +43,72 @@
   </si>
   <si>
     <t>Масса поставки, тонн:</t>
+  </si>
+  <si>
+    <t>Категория продукта:</t>
+  </si>
+  <si>
+    <t>Тип продукции:</t>
+  </si>
+  <si>
+    <t>Молоко</t>
+  </si>
+  <si>
+    <t>Яйцы</t>
+  </si>
+  <si>
+    <t>Рыба</t>
+  </si>
+  <si>
+    <t>Грибы</t>
+  </si>
+  <si>
+    <t>Фрукты</t>
+  </si>
+  <si>
+    <t>Сметана</t>
+  </si>
+  <si>
+    <t>Масло</t>
+  </si>
+  <si>
+    <t>Сыр</t>
+  </si>
+  <si>
+    <t>Птица</t>
+  </si>
+  <si>
+    <t>Кефир</t>
+  </si>
+  <si>
+    <t>Творог</t>
+  </si>
+  <si>
+    <t>Зелень</t>
+  </si>
+  <si>
+    <t>Ягоды</t>
+  </si>
+  <si>
+    <t>Колбаса вареная</t>
+  </si>
+  <si>
+    <t>Субпродукты</t>
+  </si>
+  <si>
+    <t>Мясо</t>
+  </si>
+  <si>
+    <t>Гвозди</t>
+  </si>
+  <si>
+    <t>Молотки</t>
+  </si>
+  <si>
+    <t>Скоропортящееся</t>
+  </si>
+  <si>
+    <t>Нескоропортящиеся</t>
   </si>
 </sst>
 </file>
@@ -408,7 +474,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,8 +495,12 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -441,10 +511,14 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>17</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="2"/>
@@ -455,10 +529,14 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B38" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>19</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -469,10 +547,14 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -483,10 +565,14 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -497,10 +583,14 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -511,10 +601,14 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -525,10 +619,14 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -539,10 +637,14 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -553,10 +655,14 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -567,10 +673,14 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -581,10 +691,14 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -595,10 +709,14 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -609,10 +727,14 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -623,10 +745,14 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -637,10 +763,14 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -651,10 +781,14 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -665,10 +799,14 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -679,10 +817,14 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -693,10 +835,14 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -707,10 +853,14 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -721,10 +871,14 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -735,10 +889,14 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -749,10 +907,14 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -763,10 +925,14 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -777,10 +943,14 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -791,10 +961,14 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -805,10 +979,14 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -819,10 +997,14 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -833,10 +1015,14 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -847,10 +1033,14 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -861,9 +1051,14 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -876,7 +1071,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -887,9 +1087,14 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -900,9 +1105,14 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -915,6 +1125,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -922,7 +1138,13 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,7 +1153,13 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
